--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Software\Projects\Blaster\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496A7BFF-FDF8-454E-81B8-7992C5745E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F794BC02-B13D-4C59-82DA-0650EA5CBF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LIST" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="277">
   <si>
     <t>Phone Number</t>
   </si>
@@ -860,22 +860,16 @@
     <t>Hey+there%2C+this+is+our+last+follow-up+regarding+your+interest+in+Heriot-Watt+University+Malaysia.+If+you%27re+still+keen%2C+reply+2%2C+and+we%E2%80%99ll+send+more+details.%0A%0A%F0%9F%93%8C+If+you%E2%80%99d+like+more+details%2C+simply+reply+2.%0A%F0%9F%93%8C+If+you%E2%80%99re+not+interested%2C+reply+1%2C+and+we%E2%80%99ll+stop+contacting+you.%0A%0AThank+you+very+mcuh.+Wishing+you+all+the+best%21+%F0%9F%98%8A</t>
   </si>
   <si>
-    <t>Hello%21+I%27m+Qing+Hao+from+Heriot-Watt+University+Malaysia%21%0A%0AIt+was+great+having+you+at+the+Open+Day%21+%F0%9F%8E%89+Your+presence+truly+made+it+special.+Thank+you+for+coming+and+being+a+part+of+it%21+Hope+you+found+it+insightful.++%0A%0AIf+you%27re+ready+to+take+the+next+step%2C+I%27m+happy+to+guide+you+through+our+application+process%21+%0A%0AIf+you+have+any+questions+or+need+any+more+details%2C+feel+free+to+reach+out+to+us%21%21%21</t>
-  </si>
-  <si>
-    <t>Came for Open Day</t>
-  </si>
-  <si>
-    <t>%F0%9F%93%A2+Hello+there%21%0A%0AI%27m+Qing+Hao+from+Heriot-Watt+University+%F0%9F%8E%93%E2%9C%A8%0A%0AWe+noticed+that+you+couldn%27t+attend+our+recent+Open+Day%2C+and+we+wouldn%E2%80%99t+want+you+to+miss+out+on+a+great+opportunity+%F0%9F%9A%80+to+explore+what+Heriot-Watt+University+Malaysia+has+to+offer%21+%F0%9F%87%B2%F0%9F%87%BE%F0%9F%8F%AB%0A%0A%F0%9F%92%A1+We%E2%80%99d+love+to+invite+you+for+a+personalized+visit+%F0%9F%8E%9F%EF%B8%8F+where+you+can%3A%0A%E2%9C%85+Tour+the+campus+%F0%9F%8F%9B%EF%B8%8F%0A%E2%9C%85+Meet+faculty+and+students+%F0%9F%91%A9%E2%80%8D%F0%9F%8F%AB%F0%9F%91%A8%E2%80%8D%F0%9F%8E%93%0A%E2%9C%85+Get+all+the+info+you+need+about+our+programs+%26+student+life+%F0%9F%93%9A%F0%9F%8E%89%0A%0A%F0%9F%93%85+Let+us+know+your+availability%2C+and+we%E2%80%99ll+arrange+a+convenient+time+for+your+visit.+We+can%27t+wait+to+welcome+you%21+%F0%9F%A4%97%F0%9F%92%99%0A%0ALooking+forward+to+hearing+from+you+soon%21+%F0%9F%9A%80%E2%9C%A8</t>
-  </si>
-  <si>
-    <t>Didn't come for Open Day</t>
-  </si>
-  <si>
-    <t>Hey+%7Bname%7D%21+%F0%9F%91%8B%F0%9F%8F%BC%E2%9C%A8%0A%0AI%E2%80%99m+%7Bsender%7D+from+Heriot-Watt+University+Malaysia+%E2%80%93+awesome+to+connect+with+you%21+%F0%9F%9A%80%0A%0AI%27ve+received+your+interests+in+%7Bcourse%7D%2C+and+I%E2%80%99d+love+to+share+some+exciting+details+with+you%21+%F0%9F%92%A1%F0%9F%8E%93%0A%0ALet+me+know+how+you%E2%80%99d+like+to+proceed%3A%0A%0A%F0%9F%93%B5+Reply+1+%E2%80%93+Nope%2C+not+interested.+Please+stop+contacting+me.%0A%F0%9F%92%AC+Reply+2+%E2%80%93+Yes%21+Send+me+more+details.%0A%0AJust+reply+1+or+2%2C+and+I%E2%80%99ll+handle+the+rest%21+Looking+forward+to+chatting+with+you%21+%F0%9F%98%83</t>
-  </si>
-  <si>
-    <t>INTRO - Personalized</t>
+    <t>%5BHello+%7C+Hey+%7C+Hey+there%5D+%7Bname%7D%21+%F0%9F%91%8B%F0%9F%8F%BC%E2%9C%A8%0A%0AI%E2%80%99m+%7Bsender%7D+from+Heriot-Watt+University+Malaysia+%E2%80%93+awesome+to+connect+with+you%21+%F0%9F%9A%80%0A%0AI%27ve+received+your+interests+in+%7Bcourse%7D%2C+and+I%E2%80%99d+love+to+share+some+exciting+details+with+you%21+%F0%9F%92%A1%F0%9F%8E%93%0A%0ALet+me+know+how+you%E2%80%99d+like+to+proceed%3A%0A%0A%F0%9F%93%B5+Reply+1+%E2%80%93+Nope%2C+not+interested.+Please+stop+contacting+me.%0A%F0%9F%92%AC+Reply+2+%E2%80%93+Yes%21+Send+me+more+details.%0A%0AJust+reply+1+or+2%2C+and+I%E2%80%99ll+handle+the+rest%21+Looking+forward+to+chatting+with+you%21+%F0%9F%98%83</t>
+  </si>
+  <si>
+    <t>Local - INTRO - Personalized</t>
+  </si>
+  <si>
+    <t>%5BHello+%7C+Hey+%7C+Hey+there%5D+%7Bname%7D%21+%F0%9F%91%8B%F0%9F%8F%BC%E2%9C%A8%0A%0AI%E2%80%99m+%7Bsender%7D+from+Heriot-Watt+University+Malaysia+%E2%80%93+awesome+to+connect+with+you%21+%F0%9F%9A%80%0A%0AI%27ve+received+your+interests+in+%7Bcourse%7D%2CIf+you+would+like+to+enquire%2C+please+find+our+designated+consultants+in+charge+for+international+student+enquiry+and+affairs+Ms.+Jane+%2B60+17-227+3699+or+Mr.+Amir+%2B60+12-953+0199+for+further+enquiry+and+they%27ll+be+able+to+help+your+further.</t>
+  </si>
+  <si>
+    <t>International - INTRO - Personalized</t>
   </si>
 </sst>
 </file>
@@ -1084,8 +1078,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Message" displayName="Message" ref="A1:C10" totalsRowShown="0">
-  <autoFilter ref="A1:C10" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Message" displayName="Message" ref="A1:C9" totalsRowShown="0">
+  <autoFilter ref="A1:C9" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Message Code"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Message Encoded"/>
@@ -1477,8 +1471,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1599,17 +1593,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="15" width="12.77734375" customWidth="1"/>
     <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1708,17 +1702,6 @@
       </c>
       <c r="C9" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C10" t="s">
-        <v>278</v>
       </c>
     </row>
   </sheetData>
